--- a/data/implants/implants_info.xlsx
+++ b/data/implants/implants_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\implants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\implants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9FBB56-8FBC-4719-9D4B-D5ED4D2A326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509A1AC-5321-4055-9182-045740D11719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="146">
   <si>
     <t>Тип</t>
   </si>
@@ -58,54 +58,93 @@
     <t>ПЛАН</t>
   </si>
   <si>
-    <t>19 апр.</t>
-  </si>
-  <si>
-    <t>20 апр.</t>
-  </si>
-  <si>
-    <t>21 апр.</t>
-  </si>
-  <si>
-    <t>22 апр.</t>
-  </si>
-  <si>
-    <t>23 апр.</t>
-  </si>
-  <si>
-    <t>24 апр.</t>
-  </si>
-  <si>
-    <t>25 апр.</t>
-  </si>
-  <si>
-    <t>26 апр.</t>
-  </si>
-  <si>
-    <t>27 апр.</t>
-  </si>
-  <si>
-    <t>28 апр.</t>
-  </si>
-  <si>
-    <t>29 апр.</t>
-  </si>
-  <si>
-    <t>30 апр.</t>
-  </si>
-  <si>
-    <t>01 мая</t>
-  </si>
-  <si>
-    <t>02 мая</t>
-  </si>
-  <si>
     <t>03 мая</t>
   </si>
   <si>
     <t>04 мая</t>
   </si>
   <si>
+    <t>05 мая</t>
+  </si>
+  <si>
+    <t>06 мая</t>
+  </si>
+  <si>
+    <t>07 мая</t>
+  </si>
+  <si>
+    <t>08 мая</t>
+  </si>
+  <si>
+    <t>09 мая</t>
+  </si>
+  <si>
+    <t>10 мая</t>
+  </si>
+  <si>
+    <t>11 мая</t>
+  </si>
+  <si>
+    <t>12 мая</t>
+  </si>
+  <si>
+    <t>13 мая</t>
+  </si>
+  <si>
+    <t>14 мая</t>
+  </si>
+  <si>
+    <t>15 мая</t>
+  </si>
+  <si>
+    <t>16 мая</t>
+  </si>
+  <si>
+    <t>17 мая</t>
+  </si>
+  <si>
+    <t>18 мая</t>
+  </si>
+  <si>
+    <t>19 мая</t>
+  </si>
+  <si>
+    <t>20 мая</t>
+  </si>
+  <si>
+    <t>21 мая</t>
+  </si>
+  <si>
+    <t>22 мая</t>
+  </si>
+  <si>
+    <t>23 мая</t>
+  </si>
+  <si>
+    <t>24 мая</t>
+  </si>
+  <si>
+    <t>25 мая</t>
+  </si>
+  <si>
+    <t>26 мая</t>
+  </si>
+  <si>
+    <t>27 мая</t>
+  </si>
+  <si>
+    <t>28 мая</t>
+  </si>
+  <si>
+    <t>29 мая</t>
+  </si>
+  <si>
+    <t>30 мая</t>
+  </si>
+  <si>
+    <t>31 мая</t>
+  </si>
+  <si>
     <t>ОСТ</t>
   </si>
   <si>
@@ -226,18 +265,21 @@
     <t>51001 Заготовка имплантата LM Osstem Implant Mini (3.5) D=3.5 L=8.5 (арт. TS3M3508S) V.1</t>
   </si>
   <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>51001V2 Заготовка имплантата LM Osstem Implant Mini (3.5) D=3.5 L=8.5 (арт. TS3M3508S) V.2</t>
+  </si>
+  <si>
+    <t>Версия 2</t>
+  </si>
+  <si>
     <t>51002 Заготовка имплантата LM Osstem Implant Mini (3.5) D=3.5 L=10 (арт. TS3M3510S) V.1</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>51002V2 Заготовка имплантата LM Osstem Implant Mini (3.5) D=3.5 L=10 (арт. TS3M3510S) V.2</t>
   </si>
   <si>
-    <t>Версия 2</t>
-  </si>
-  <si>
     <t>51003 Заготовка имплантата LM Osstem Implant Mini (3.5) D=3.5 L=11.5 (арт. TS3M3511S) V.1</t>
   </si>
   <si>
@@ -310,7 +352,13 @@
     <t>51014 Заготовка имплантата LM Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=13 (арт. TS3S4513S) V.1</t>
   </si>
   <si>
+    <t>51014V2 Заготовка имплантата LM Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=13 (арт. TS3S4513S) V.2</t>
+  </si>
+  <si>
     <t>51016 Заготовка имплантата LM Osstem Implant Regular (4.0/4.5/5.0) D=5 L=6 (арт. TS3S5006S) V.1</t>
+  </si>
+  <si>
+    <t>51016V2 Заготовка имплантата LM Osstem Implant Regular (4.0/4.5/5.0) D=5 L=6 (арт. TS3S5006S) V.2</t>
   </si>
   <si>
     <t>51017 Заготовка имплантата LM Osstem Implant Regular (4.0/4.5/5.0) D=5 L=7 (арт. TS3S5007S) V.1</t>
@@ -417,8 +465,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0&quot; апр.&quot;"/>
-    <numFmt numFmtId="165" formatCode="00&quot; мая&quot;"/>
+    <numFmt numFmtId="164" formatCode="00&quot; мая&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot; мая&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -552,10 +600,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -573,14 +621,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -591,10 +639,10 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,10 +1005,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AR73"/>
+  <dimension ref="A1:BE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -970,7 +1018,9 @@
     <col min="5" max="5" width="74.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="7" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.1640625" style="1" customWidth="1"/>
     <col min="15" max="16" width="8.1640625" style="1" customWidth="1" outlineLevel="1"/>
@@ -986,11 +1036,10 @@
     <col min="26" max="26" width="6.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="8.1640625" style="1" customWidth="1"/>
     <col min="28" max="28" width="7.6640625" style="1" customWidth="1"/>
-    <col min="29" max="40" width="13.6640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="44" width="12.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="57" width="12.33203125" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1140,47 @@
       <c r="AR1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AS1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1102,91 +1190,130 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="21" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
       <c r="X2" s="21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="18" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="22" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AC2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AD2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AG2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AH2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AI2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AJ2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AK2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AL2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AM2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AN2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AP2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AQ2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AR2" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1196,58 +1323,58 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="AA3" s="20"/>
       <c r="AB3" s="23"/>
@@ -1267,31 +1394,44 @@
       <c r="AP3" s="23"/>
       <c r="AQ3" s="23"/>
       <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
     </row>
-    <row r="4" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I4" s="6">
         <v>35</v>
@@ -1363,31 +1503,44 @@
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
     </row>
-    <row r="5" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I5" s="6">
         <v>4</v>
@@ -1459,31 +1612,44 @@
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
     </row>
-    <row r="6" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I6" s="6">
         <v>13</v>
@@ -1555,31 +1721,44 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
     </row>
-    <row r="7" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I7" s="6">
         <v>8</v>
@@ -1651,31 +1830,44 @@
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
       <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
     </row>
-    <row r="8" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I8" s="6">
         <v>60</v>
@@ -1747,31 +1939,44 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
     </row>
-    <row r="9" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I9" s="6">
         <v>143</v>
@@ -1843,31 +2048,44 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
     </row>
-    <row r="10" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I10" s="6">
         <v>94</v>
@@ -1939,31 +2157,44 @@
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
     </row>
-    <row r="11" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I11" s="6">
         <v>93</v>
@@ -2035,31 +2266,44 @@
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
     </row>
-    <row r="12" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I12" s="6">
         <v>174</v>
@@ -2131,31 +2375,44 @@
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
     </row>
-    <row r="13" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="I13" s="6">
         <v>77</v>
@@ -2227,31 +2484,44 @@
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
     </row>
-    <row r="14" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I14" s="6">
         <v>34</v>
@@ -2323,31 +2593,44 @@
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
     </row>
-    <row r="15" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I15" s="6">
         <v>42</v>
@@ -2419,31 +2702,44 @@
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
     </row>
-    <row r="16" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I16" s="6">
         <v>221</v>
@@ -2515,31 +2811,44 @@
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
     </row>
-    <row r="17" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I17" s="6">
         <v>142</v>
@@ -2611,31 +2920,44 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
     </row>
-    <row r="18" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I18" s="6">
         <v>62</v>
@@ -2707,31 +3029,44 @@
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
     </row>
-    <row r="19" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I19" s="6">
         <v>64</v>
@@ -2803,31 +3138,44 @@
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
     </row>
-    <row r="20" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I20" s="6">
         <v>18</v>
@@ -2899,79 +3247,92 @@
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
     </row>
-    <row r="21" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="10">
-        <v>62</v>
-      </c>
-      <c r="J21" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="I21" s="11">
+        <v>48</v>
+      </c>
+      <c r="J21" s="12"/>
       <c r="K21" s="6">
-        <v>62</v>
-      </c>
-      <c r="L21" s="10">
-        <v>213</v>
+        <v>48</v>
+      </c>
+      <c r="L21" s="11">
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="6">
-        <v>213</v>
-      </c>
-      <c r="O21" s="10">
-        <v>21</v>
-      </c>
-      <c r="P21" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="O21" s="11">
+        <v>10</v>
+      </c>
+      <c r="P21" s="12"/>
       <c r="Q21" s="6">
-        <v>21</v>
-      </c>
-      <c r="R21" s="10">
-        <v>205</v>
+        <v>10</v>
+      </c>
+      <c r="R21" s="11">
+        <v>122</v>
       </c>
       <c r="S21" s="7">
         <v>0</v>
       </c>
       <c r="T21" s="6">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="U21" s="6">
-        <v>41</v>
-      </c>
-      <c r="V21" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="V21" s="12"/>
       <c r="W21" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X21" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y21" s="7">
         <v>0</v>
       </c>
       <c r="Z21" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
@@ -2991,47 +3352,60 @@
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
     </row>
-    <row r="22" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I22" s="6">
-        <v>20</v>
-      </c>
-      <c r="J22" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L22" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O22" s="6">
         <v>0</v>
@@ -3050,112 +3424,159 @@
         <v>0</v>
       </c>
       <c r="U22" s="6">
-        <v>20</v>
-      </c>
-      <c r="V22" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="8"/>
       <c r="W22" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>15</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="14">
         <v>6</v>
       </c>
-      <c r="Y22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
+      <c r="AG22" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI22" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ22" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK22" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN22" s="15">
+        <v>14</v>
+      </c>
+      <c r="AO22" s="15">
+        <v>15</v>
+      </c>
+      <c r="AP22" s="15">
+        <v>16</v>
+      </c>
+      <c r="AQ22" s="15">
+        <v>17</v>
+      </c>
       <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
     </row>
-    <row r="23" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="10">
-        <v>41</v>
-      </c>
-      <c r="J23" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="I23" s="6">
+        <v>15</v>
+      </c>
+      <c r="J23" s="12"/>
       <c r="K23" s="6">
-        <v>41</v>
-      </c>
-      <c r="L23" s="10">
-        <v>264</v>
+        <v>15</v>
+      </c>
+      <c r="L23" s="6">
+        <v>10</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <v>264</v>
-      </c>
-      <c r="O23" s="10">
-        <v>31</v>
-      </c>
-      <c r="P23" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8"/>
       <c r="Q23" s="6">
-        <v>31</v>
-      </c>
-      <c r="R23" s="10">
-        <v>264</v>
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
       </c>
       <c r="S23" s="7">
         <v>0</v>
       </c>
       <c r="T23" s="6">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="U23" s="6">
+        <v>15</v>
+      </c>
+      <c r="V23" s="12"/>
+      <c r="W23" s="6">
+        <v>15</v>
+      </c>
+      <c r="X23" s="6">
         <v>10</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="6">
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="6">
         <v>10</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>0</v>
       </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -3175,209 +3596,245 @@
       <c r="AP23" s="5"/>
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
     </row>
-    <row r="24" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="11">
+        <v>10</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="6">
+        <v>10</v>
+      </c>
+      <c r="L24" s="11">
+        <v>308</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>308</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="11">
+        <v>307</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <v>307</v>
+      </c>
+      <c r="U24" s="6">
+        <v>10</v>
+      </c>
+      <c r="V24" s="12"/>
+      <c r="W24" s="6">
+        <v>10</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="6">
         <v>42</v>
       </c>
-      <c r="I24" s="6">
-        <v>247</v>
-      </c>
-      <c r="J24" s="6">
-        <v>221</v>
-      </c>
-      <c r="K24" s="6">
-        <v>26</v>
-      </c>
-      <c r="L24" s="6">
-        <v>170</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>170</v>
-      </c>
-      <c r="O24" s="6">
-        <v>222</v>
-      </c>
-      <c r="P24" s="6">
-        <v>221</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6">
-        <v>168</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>168</v>
-      </c>
-      <c r="U24" s="6">
-        <v>25</v>
-      </c>
-      <c r="V24" s="11"/>
-      <c r="W24" s="6">
-        <v>25</v>
-      </c>
-      <c r="X24" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
+      <c r="AB24" s="13">
+        <v>14</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ24" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL24" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN24" s="15">
+        <v>14</v>
+      </c>
+      <c r="AO24" s="15">
+        <v>15</v>
+      </c>
+      <c r="AP24" s="15">
+        <v>16</v>
+      </c>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
     </row>
-    <row r="25" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I25" s="6">
-        <v>10</v>
-      </c>
-      <c r="J25" s="11"/>
+        <v>244</v>
+      </c>
+      <c r="J25" s="6">
+        <v>221</v>
+      </c>
       <c r="K25" s="6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L25" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
       <c r="N25" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O25" s="6">
-        <v>10</v>
-      </c>
-      <c r="P25" s="11"/>
+        <v>222</v>
+      </c>
+      <c r="P25" s="6">
+        <v>221</v>
+      </c>
       <c r="Q25" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R25" s="6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S25" s="7">
         <v>0</v>
       </c>
       <c r="T25" s="6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U25" s="6">
-        <v>0</v>
-      </c>
-      <c r="V25" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="V25" s="12"/>
       <c r="W25" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X25" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="7">
         <v>0</v>
       </c>
       <c r="Z25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>27</v>
-      </c>
-      <c r="AB25" s="13">
-        <v>9</v>
-      </c>
-      <c r="AC25" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD25" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE25" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF25" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG25" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH25" s="14">
-        <v>24</v>
-      </c>
-      <c r="AI25" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ25" s="14">
-        <v>26</v>
-      </c>
-      <c r="AK25" s="14">
-        <v>27</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
@@ -3385,63 +3842,76 @@
       <c r="AP25" s="5"/>
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
     </row>
-    <row r="26" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I26" s="6">
-        <v>73</v>
-      </c>
-      <c r="J26" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="J26" s="12"/>
       <c r="K26" s="6">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="L26" s="6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
       <c r="N26" s="6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O26" s="6">
-        <v>73</v>
-      </c>
-      <c r="P26" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="P26" s="12"/>
       <c r="Q26" s="6">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="R26" s="6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S26" s="7">
         <v>0</v>
       </c>
       <c r="T26" s="6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="U26" s="6">
         <v>0</v>
@@ -3477,63 +3947,76 @@
       <c r="AP26" s="5"/>
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
     </row>
-    <row r="27" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="10">
-        <v>73</v>
-      </c>
-      <c r="J27" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="I27" s="6">
+        <v>74</v>
+      </c>
+      <c r="J27" s="12"/>
       <c r="K27" s="6">
-        <v>73</v>
-      </c>
-      <c r="L27" s="10">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="L27" s="6">
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
       <c r="N27" s="6">
-        <v>102</v>
-      </c>
-      <c r="O27" s="10">
-        <v>73</v>
-      </c>
-      <c r="P27" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="O27" s="6">
+        <v>74</v>
+      </c>
+      <c r="P27" s="12"/>
       <c r="Q27" s="6">
-        <v>73</v>
-      </c>
-      <c r="R27" s="10">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="R27" s="6">
+        <v>28</v>
       </c>
       <c r="S27" s="7">
         <v>0</v>
       </c>
       <c r="T27" s="6">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="U27" s="6">
         <v>0</v>
@@ -3569,70 +4052,83 @@
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
     </row>
-    <row r="28" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I28" s="6">
-        <v>125</v>
-      </c>
-      <c r="J28" s="11"/>
+        <v>359</v>
+      </c>
+      <c r="J28" s="12"/>
       <c r="K28" s="6">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="L28" s="6">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
       <c r="N28" s="6">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="O28" s="6">
-        <v>105</v>
-      </c>
-      <c r="P28" s="11"/>
+        <v>359</v>
+      </c>
+      <c r="P28" s="12"/>
       <c r="Q28" s="6">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="R28" s="6">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="S28" s="7">
         <v>0</v>
       </c>
       <c r="T28" s="6">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="U28" s="6">
-        <v>20</v>
-      </c>
-      <c r="V28" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="8"/>
       <c r="W28" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X28" s="6">
         <v>0</v>
@@ -3643,8 +4139,12 @@
       <c r="Z28" s="6">
         <v>0</v>
       </c>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
+      <c r="AA28" s="6">
+        <v>14</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>5</v>
+      </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
@@ -3659,72 +4159,95 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
+      <c r="AQ28" s="15">
+        <v>17</v>
+      </c>
+      <c r="AR28" s="15">
+        <v>18</v>
+      </c>
+      <c r="AS28" s="15">
+        <v>19</v>
+      </c>
+      <c r="AT28" s="15">
+        <v>20</v>
+      </c>
+      <c r="AU28" s="15">
+        <v>21</v>
+      </c>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
     </row>
-    <row r="29" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I29" s="6">
-        <v>213</v>
-      </c>
-      <c r="J29" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="J29" s="12"/>
       <c r="K29" s="6">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="L29" s="6">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
       </c>
       <c r="N29" s="6">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="O29" s="6">
-        <v>213</v>
-      </c>
-      <c r="P29" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="P29" s="12"/>
       <c r="Q29" s="6">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="R29" s="6">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="S29" s="7">
         <v>0</v>
       </c>
       <c r="T29" s="6">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="U29" s="6">
-        <v>0</v>
-      </c>
-      <c r="V29" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="V29" s="12"/>
       <c r="W29" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X29" s="6">
         <v>0</v>
@@ -3753,70 +4276,83 @@
       <c r="AP29" s="5"/>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
     </row>
-    <row r="30" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8"/>
+        <v>175</v>
+      </c>
+      <c r="J30" s="12"/>
       <c r="K30" s="6">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="L30" s="6">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
       </c>
       <c r="N30" s="6">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="P30" s="12"/>
       <c r="Q30" s="6">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="R30" s="6">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="S30" s="7">
         <v>0</v>
       </c>
       <c r="T30" s="6">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="U30" s="6">
-        <v>0</v>
-      </c>
-      <c r="V30" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="V30" s="12"/>
       <c r="W30" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X30" s="6">
         <v>0</v>
@@ -3827,123 +4363,110 @@
       <c r="Z30" s="6">
         <v>0</v>
       </c>
-      <c r="AA30" s="6">
-        <v>33</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>11</v>
-      </c>
-      <c r="AC30" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD30" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE30" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF30" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG30" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH30" s="14">
-        <v>24</v>
-      </c>
-      <c r="AI30" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ30" s="14">
-        <v>26</v>
-      </c>
-      <c r="AK30" s="14">
-        <v>27</v>
-      </c>
-      <c r="AL30" s="14">
-        <v>28</v>
-      </c>
-      <c r="AM30" s="14">
-        <v>29</v>
-      </c>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
     </row>
-    <row r="31" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="10">
-        <v>9</v>
-      </c>
-      <c r="J31" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="I31" s="6">
+        <v>141</v>
+      </c>
+      <c r="J31" s="12"/>
       <c r="K31" s="6">
-        <v>9</v>
-      </c>
-      <c r="L31" s="10">
-        <v>241</v>
+        <v>141</v>
+      </c>
+      <c r="L31" s="6">
+        <v>124</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
       </c>
       <c r="N31" s="6">
-        <v>241</v>
-      </c>
-      <c r="O31" s="10">
-        <v>0</v>
-      </c>
-      <c r="P31" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="O31" s="6">
+        <v>141</v>
+      </c>
+      <c r="P31" s="12"/>
       <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="10">
-        <v>231</v>
+        <v>141</v>
+      </c>
+      <c r="R31" s="6">
+        <v>124</v>
       </c>
       <c r="S31" s="7">
         <v>0</v>
       </c>
       <c r="T31" s="6">
-        <v>231</v>
-      </c>
-      <c r="U31" s="10">
-        <v>9</v>
-      </c>
-      <c r="V31" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8"/>
       <c r="W31" s="6">
-        <v>9</v>
-      </c>
-      <c r="X31" s="10">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0</v>
       </c>
       <c r="Y31" s="7">
         <v>0</v>
       </c>
       <c r="Z31" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
@@ -3963,110 +4486,103 @@
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
     </row>
-    <row r="32" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="10">
+        <v>55</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
         <v>19</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="6">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
         <v>19</v>
       </c>
-      <c r="L32" s="10">
-        <v>216</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>216</v>
-      </c>
-      <c r="O32" s="10">
-        <v>4</v>
-      </c>
-      <c r="P32" s="11"/>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="12"/>
       <c r="Q32" s="6">
-        <v>4</v>
-      </c>
-      <c r="R32" s="10">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="R32" s="11">
+        <v>6</v>
       </c>
       <c r="S32" s="7">
         <v>0</v>
       </c>
       <c r="T32" s="6">
-        <v>216</v>
-      </c>
-      <c r="U32" s="6">
-        <v>15</v>
-      </c>
-      <c r="V32" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="U32" s="11">
+        <v>1</v>
+      </c>
+      <c r="V32" s="12"/>
       <c r="W32" s="6">
-        <v>15</v>
-      </c>
-      <c r="X32" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X32" s="11">
+        <v>13</v>
       </c>
       <c r="Y32" s="7">
         <v>0</v>
       </c>
       <c r="Z32" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="6">
-        <v>24</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>8</v>
-      </c>
-      <c r="AC32" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD32" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE32" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF32" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG32" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH32" s="14">
-        <v>24</v>
-      </c>
-      <c r="AI32" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ32" s="14">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
@@ -4075,79 +4591,92 @@
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
     </row>
-    <row r="33" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="10">
-        <v>19</v>
-      </c>
-      <c r="J33" s="11"/>
+      <c r="I33" s="11">
+        <v>268</v>
+      </c>
+      <c r="J33" s="12"/>
       <c r="K33" s="6">
-        <v>19</v>
-      </c>
-      <c r="L33" s="10">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="L33" s="11">
+        <v>450</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
       <c r="N33" s="6">
-        <v>56</v>
-      </c>
-      <c r="O33" s="10">
-        <v>0</v>
-      </c>
-      <c r="P33" s="11"/>
+        <v>450</v>
+      </c>
+      <c r="O33" s="11">
+        <v>245</v>
+      </c>
+      <c r="P33" s="12"/>
       <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="10">
-        <v>56</v>
+        <v>245</v>
+      </c>
+      <c r="R33" s="11">
+        <v>438</v>
       </c>
       <c r="S33" s="7">
         <v>0</v>
       </c>
       <c r="T33" s="6">
-        <v>56</v>
+        <v>438</v>
       </c>
       <c r="U33" s="6">
-        <v>19</v>
-      </c>
-      <c r="V33" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="V33" s="12"/>
       <c r="W33" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X33" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y33" s="7">
         <v>0</v>
       </c>
       <c r="Z33" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
@@ -4167,192 +4696,192 @@
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
     </row>
-    <row r="34" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" s="10">
-        <v>372</v>
-      </c>
-      <c r="J34" s="6">
-        <v>41</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I34" s="6">
+        <v>17</v>
+      </c>
+      <c r="J34" s="12"/>
       <c r="K34" s="6">
-        <v>331</v>
-      </c>
-      <c r="L34" s="10">
-        <v>499</v>
+        <v>17</v>
+      </c>
+      <c r="L34" s="6">
+        <v>8</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
       <c r="N34" s="6">
-        <v>499</v>
-      </c>
-      <c r="O34" s="10">
-        <v>352</v>
-      </c>
-      <c r="P34" s="6">
-        <v>41</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O34" s="11">
+        <v>3</v>
+      </c>
+      <c r="P34" s="12"/>
       <c r="Q34" s="6">
-        <v>311</v>
-      </c>
-      <c r="R34" s="10">
-        <v>499</v>
+        <v>3</v>
+      </c>
+      <c r="R34" s="11">
+        <v>3</v>
       </c>
       <c r="S34" s="7">
         <v>0</v>
       </c>
       <c r="T34" s="6">
-        <v>499</v>
+        <v>3</v>
       </c>
       <c r="U34" s="6">
-        <v>20</v>
-      </c>
-      <c r="V34" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="V34" s="12"/>
       <c r="W34" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X34" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y34" s="7">
         <v>0</v>
       </c>
       <c r="Z34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="6">
-        <v>33</v>
-      </c>
-      <c r="AB34" s="13">
-        <v>11</v>
-      </c>
-      <c r="AC34" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD34" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE34" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF34" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG34" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH34" s="14">
-        <v>24</v>
-      </c>
-      <c r="AI34" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ34" s="14">
-        <v>26</v>
-      </c>
-      <c r="AK34" s="14">
-        <v>27</v>
-      </c>
-      <c r="AL34" s="14">
-        <v>28</v>
-      </c>
-      <c r="AM34" s="14">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
     </row>
-    <row r="35" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="6">
+        <v>762</v>
+      </c>
+      <c r="J35" s="6">
         <v>41</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="10">
-        <v>10</v>
-      </c>
-      <c r="J35" s="11"/>
       <c r="K35" s="6">
-        <v>10</v>
-      </c>
-      <c r="L35" s="10">
-        <v>43</v>
+        <v>721</v>
+      </c>
+      <c r="L35" s="6">
+        <v>337</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
       <c r="N35" s="6">
-        <v>43</v>
-      </c>
-      <c r="O35" s="10">
-        <v>0</v>
-      </c>
-      <c r="P35" s="11"/>
+        <v>337</v>
+      </c>
+      <c r="O35" s="6">
+        <v>742</v>
+      </c>
+      <c r="P35" s="6">
+        <v>41</v>
+      </c>
       <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="10">
-        <v>43</v>
+        <v>701</v>
+      </c>
+      <c r="R35" s="6">
+        <v>337</v>
       </c>
       <c r="S35" s="7">
         <v>0</v>
       </c>
       <c r="T35" s="6">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="U35" s="6">
-        <v>10</v>
-      </c>
-      <c r="V35" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="V35" s="12"/>
       <c r="W35" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X35" s="6">
         <v>0</v>
@@ -4381,68 +4910,81 @@
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
     </row>
-    <row r="36" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I36" s="6">
-        <v>275</v>
-      </c>
-      <c r="J36" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="12"/>
       <c r="K36" s="6">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="L36" s="6">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
       <c r="N36" s="6">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="O36" s="6">
-        <v>265</v>
-      </c>
-      <c r="P36" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="8"/>
       <c r="Q36" s="6">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="R36" s="6">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="S36" s="7">
         <v>0</v>
       </c>
       <c r="T36" s="6">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="U36" s="6">
         <v>10</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="12"/>
       <c r="W36" s="6">
         <v>10</v>
       </c>
@@ -4455,139 +4997,126 @@
       <c r="Z36" s="6">
         <v>0</v>
       </c>
-      <c r="AA36" s="6">
-        <v>48</v>
-      </c>
-      <c r="AB36" s="13">
-        <v>16</v>
-      </c>
-      <c r="AC36" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD36" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE36" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF36" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG36" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH36" s="14">
-        <v>24</v>
-      </c>
-      <c r="AI36" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ36" s="14">
-        <v>26</v>
-      </c>
-      <c r="AK36" s="14">
-        <v>27</v>
-      </c>
-      <c r="AL36" s="14">
-        <v>28</v>
-      </c>
-      <c r="AM36" s="14">
-        <v>29</v>
-      </c>
-      <c r="AN36" s="14">
-        <v>30</v>
-      </c>
-      <c r="AO36" s="15">
-        <v>1</v>
-      </c>
-      <c r="AP36" s="15">
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+    </row>
+    <row r="37" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="6">
+        <v>298</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="6">
+        <v>298</v>
+      </c>
+      <c r="L37" s="6">
+        <v>169</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>169</v>
+      </c>
+      <c r="O37" s="6">
+        <v>290</v>
+      </c>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="6">
+        <v>290</v>
+      </c>
+      <c r="R37" s="6">
+        <v>167</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0</v>
+      </c>
+      <c r="T37" s="6">
+        <v>167</v>
+      </c>
+      <c r="U37" s="6">
+        <v>8</v>
+      </c>
+      <c r="V37" s="12"/>
+      <c r="W37" s="6">
+        <v>8</v>
+      </c>
+      <c r="X37" s="6">
         <v>2</v>
       </c>
-      <c r="AQ36" s="15">
+      <c r="Y37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="13">
         <v>3</v>
       </c>
-      <c r="AR36" s="15">
+      <c r="AC37" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="10">
-        <v>6</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="6">
-        <v>6</v>
-      </c>
-      <c r="L37" s="10">
-        <v>24</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>24</v>
-      </c>
-      <c r="O37" s="10">
-        <v>6</v>
-      </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="6">
-        <v>6</v>
-      </c>
-      <c r="R37" s="10">
-        <v>24</v>
-      </c>
-      <c r="S37" s="7">
-        <v>0</v>
-      </c>
-      <c r="T37" s="6">
-        <v>24</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0</v>
-      </c>
-      <c r="V37" s="8"/>
-      <c r="W37" s="6">
-        <v>0</v>
-      </c>
-      <c r="X37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
+      <c r="AE37" s="14">
+        <v>5</v>
+      </c>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
@@ -4601,74 +5130,83 @@
       <c r="AP37" s="5"/>
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
     </row>
-    <row r="38" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I38" s="6">
-        <v>489</v>
-      </c>
-      <c r="J38" s="6">
-        <v>312</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J38" s="12"/>
       <c r="K38" s="6">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="L38" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
       <c r="N38" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="O38" s="6">
-        <v>469</v>
-      </c>
-      <c r="P38" s="6">
-        <v>312</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P38" s="12"/>
       <c r="Q38" s="6">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="R38" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="S38" s="7">
         <v>0</v>
       </c>
       <c r="T38" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="U38" s="6">
-        <v>20</v>
-      </c>
-      <c r="V38" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="8"/>
       <c r="W38" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X38" s="6">
         <v>0</v>
@@ -4697,79 +5235,96 @@
       <c r="AP38" s="5"/>
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
     </row>
-    <row r="39" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="10">
-        <v>21</v>
-      </c>
-      <c r="J39" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="I39" s="6">
+        <v>476</v>
+      </c>
+      <c r="J39" s="6">
+        <v>312</v>
+      </c>
       <c r="K39" s="6">
-        <v>21</v>
-      </c>
-      <c r="L39" s="10">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="L39" s="6">
+        <v>53</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
       <c r="N39" s="6">
-        <v>162</v>
-      </c>
-      <c r="O39" s="10">
-        <v>3</v>
-      </c>
-      <c r="P39" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O39" s="6">
+        <v>456</v>
+      </c>
+      <c r="P39" s="6">
+        <v>312</v>
+      </c>
       <c r="Q39" s="6">
-        <v>3</v>
-      </c>
-      <c r="R39" s="10">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="R39" s="6">
+        <v>53</v>
       </c>
       <c r="S39" s="7">
         <v>0</v>
       </c>
       <c r="T39" s="6">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="U39" s="6">
-        <v>18</v>
-      </c>
-      <c r="V39" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="V39" s="12"/>
       <c r="W39" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X39" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="7">
         <v>0</v>
       </c>
       <c r="Z39" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
@@ -4789,83 +5344,92 @@
       <c r="AP39" s="5"/>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
     </row>
-    <row r="40" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="6">
-        <v>487</v>
-      </c>
-      <c r="J40" s="6">
-        <v>282</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I40" s="11">
+        <v>14</v>
+      </c>
+      <c r="J40" s="12"/>
       <c r="K40" s="6">
-        <v>205</v>
-      </c>
-      <c r="L40" s="6">
-        <v>179</v>
+        <v>14</v>
+      </c>
+      <c r="L40" s="11">
+        <v>97</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
       </c>
       <c r="N40" s="6">
-        <v>179</v>
-      </c>
-      <c r="O40" s="6">
-        <v>477</v>
-      </c>
-      <c r="P40" s="6">
-        <v>282</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O40" s="11">
+        <v>5</v>
+      </c>
+      <c r="P40" s="12"/>
       <c r="Q40" s="6">
-        <v>195</v>
-      </c>
-      <c r="R40" s="6">
-        <v>179</v>
+        <v>5</v>
+      </c>
+      <c r="R40" s="11">
+        <v>79</v>
       </c>
       <c r="S40" s="7">
         <v>0</v>
       </c>
       <c r="T40" s="6">
-        <v>179</v>
-      </c>
-      <c r="U40" s="6">
-        <v>10</v>
-      </c>
-      <c r="V40" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="U40" s="11">
+        <v>9</v>
+      </c>
+      <c r="V40" s="12"/>
       <c r="W40" s="6">
-        <v>10</v>
-      </c>
-      <c r="X40" s="6">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="X40" s="11">
+        <v>18</v>
       </c>
       <c r="Y40" s="7">
         <v>0</v>
       </c>
       <c r="Z40" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
@@ -4885,79 +5449,96 @@
       <c r="AP40" s="5"/>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
     </row>
-    <row r="41" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="E41" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="F41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="10">
-        <v>7</v>
-      </c>
-      <c r="J41" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="I41" s="6">
+        <v>927</v>
+      </c>
+      <c r="J41" s="6">
+        <v>153</v>
+      </c>
       <c r="K41" s="6">
-        <v>7</v>
-      </c>
-      <c r="L41" s="10">
-        <v>34</v>
+        <v>774</v>
+      </c>
+      <c r="L41" s="6">
+        <v>172</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <v>34</v>
-      </c>
-      <c r="O41" s="10">
-        <v>1</v>
-      </c>
-      <c r="P41" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="O41" s="6">
+        <v>921</v>
+      </c>
+      <c r="P41" s="6">
+        <v>153</v>
+      </c>
       <c r="Q41" s="6">
-        <v>1</v>
-      </c>
-      <c r="R41" s="10">
-        <v>26</v>
+        <v>768</v>
+      </c>
+      <c r="R41" s="6">
+        <v>168</v>
       </c>
       <c r="S41" s="7">
         <v>0</v>
       </c>
       <c r="T41" s="6">
-        <v>26</v>
-      </c>
-      <c r="U41" s="10">
+        <v>168</v>
+      </c>
+      <c r="U41" s="6">
         <v>6</v>
       </c>
-      <c r="V41" s="11"/>
+      <c r="V41" s="12"/>
       <c r="W41" s="6">
         <v>6</v>
       </c>
-      <c r="X41" s="10">
-        <v>8</v>
+      <c r="X41" s="6">
+        <v>4</v>
       </c>
       <c r="Y41" s="7">
         <v>0</v>
       </c>
       <c r="Z41" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
@@ -4977,79 +5558,92 @@
       <c r="AP41" s="5"/>
       <c r="AQ41" s="5"/>
       <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
     </row>
-    <row r="42" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="L42" s="11">
         <v>36</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="6">
-        <v>780</v>
-      </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="6">
-        <v>780</v>
-      </c>
-      <c r="L42" s="6">
-        <v>291</v>
-      </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
       <c r="N42" s="6">
-        <v>291</v>
-      </c>
-      <c r="O42" s="6">
-        <v>770</v>
-      </c>
-      <c r="P42" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="O42" s="11">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12"/>
       <c r="Q42" s="6">
-        <v>770</v>
-      </c>
-      <c r="R42" s="6">
-        <v>291</v>
+        <v>1</v>
+      </c>
+      <c r="R42" s="11">
+        <v>23</v>
       </c>
       <c r="S42" s="7">
         <v>0</v>
       </c>
       <c r="T42" s="6">
-        <v>291</v>
-      </c>
-      <c r="U42" s="6">
-        <v>10</v>
-      </c>
-      <c r="V42" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12"/>
       <c r="W42" s="6">
-        <v>10</v>
-      </c>
-      <c r="X42" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X42" s="11">
+        <v>13</v>
       </c>
       <c r="Y42" s="7">
         <v>0</v>
       </c>
       <c r="Z42" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
@@ -5069,70 +5663,83 @@
       <c r="AP42" s="5"/>
       <c r="AQ42" s="5"/>
       <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
     </row>
-    <row r="43" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I43" s="6">
-        <v>219</v>
-      </c>
-      <c r="J43" s="11"/>
+        <v>842</v>
+      </c>
+      <c r="J43" s="12"/>
       <c r="K43" s="6">
-        <v>219</v>
+        <v>842</v>
       </c>
       <c r="L43" s="6">
-        <v>106</v>
+        <v>422</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
       </c>
       <c r="N43" s="6">
-        <v>106</v>
+        <v>422</v>
       </c>
       <c r="O43" s="6">
-        <v>191</v>
-      </c>
-      <c r="P43" s="11"/>
+        <v>813</v>
+      </c>
+      <c r="P43" s="12"/>
       <c r="Q43" s="6">
-        <v>191</v>
+        <v>813</v>
       </c>
       <c r="R43" s="6">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="S43" s="7">
         <v>0</v>
       </c>
       <c r="T43" s="6">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="U43" s="6">
-        <v>28</v>
-      </c>
-      <c r="V43" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="V43" s="12"/>
       <c r="W43" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X43" s="6">
         <v>2</v>
@@ -5161,79 +5768,92 @@
       <c r="AP43" s="5"/>
       <c r="AQ43" s="5"/>
       <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
     </row>
-    <row r="44" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="6">
+        <v>216</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="6">
+        <v>216</v>
+      </c>
+      <c r="L44" s="6">
         <v>41</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
         <v>41</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="6">
-        <v>205</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="6">
-        <v>205</v>
-      </c>
-      <c r="L44" s="6">
-        <v>103</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <v>103</v>
-      </c>
       <c r="O44" s="6">
-        <v>205</v>
-      </c>
-      <c r="P44" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="P44" s="12"/>
       <c r="Q44" s="6">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="R44" s="6">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="S44" s="7">
         <v>0</v>
       </c>
       <c r="T44" s="6">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="U44" s="6">
-        <v>0</v>
-      </c>
-      <c r="V44" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="V44" s="12"/>
       <c r="W44" s="6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X44" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y44" s="7">
         <v>0</v>
       </c>
       <c r="Z44" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
@@ -5253,74 +5873,83 @@
       <c r="AP44" s="5"/>
       <c r="AQ44" s="5"/>
       <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
     </row>
-    <row r="45" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I45" s="6">
-        <v>88</v>
-      </c>
-      <c r="J45" s="6">
-        <v>50</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J45" s="12"/>
       <c r="K45" s="6">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="L45" s="6">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="O45" s="6">
-        <v>78</v>
-      </c>
-      <c r="P45" s="6">
-        <v>50</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="P45" s="12"/>
       <c r="Q45" s="6">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="R45" s="6">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="S45" s="7">
         <v>0</v>
       </c>
       <c r="T45" s="6">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="U45" s="6">
-        <v>10</v>
-      </c>
-      <c r="V45" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="8"/>
       <c r="W45" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X45" s="6">
         <v>0</v>
@@ -5349,68 +5978,85 @@
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5"/>
       <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
     </row>
-    <row r="46" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="6">
+        <v>75</v>
+      </c>
+      <c r="J46" s="6">
+        <v>50</v>
+      </c>
+      <c r="K46" s="6">
+        <v>25</v>
+      </c>
+      <c r="L46" s="6">
+        <v>29</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>29</v>
+      </c>
+      <c r="O46" s="6">
         <v>65</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="6">
-        <v>22</v>
-      </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="6">
-        <v>22</v>
-      </c>
-      <c r="L46" s="6">
-        <v>11</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>11</v>
-      </c>
-      <c r="O46" s="6">
-        <v>12</v>
-      </c>
-      <c r="P46" s="11"/>
+      <c r="P46" s="6">
+        <v>50</v>
+      </c>
       <c r="Q46" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R46" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="S46" s="7">
         <v>0</v>
       </c>
       <c r="T46" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="U46" s="6">
         <v>10</v>
       </c>
-      <c r="V46" s="11"/>
+      <c r="V46" s="12"/>
       <c r="W46" s="6">
         <v>10</v>
       </c>
@@ -5441,63 +6087,76 @@
       <c r="AP46" s="5"/>
       <c r="AQ46" s="5"/>
       <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
     </row>
-    <row r="47" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I47" s="6">
-        <v>46</v>
-      </c>
-      <c r="J47" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="8"/>
       <c r="K47" s="6">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L47" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
       </c>
       <c r="N47" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O47" s="6">
-        <v>46</v>
-      </c>
-      <c r="P47" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="8"/>
       <c r="Q47" s="6">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R47" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S47" s="7">
         <v>0</v>
       </c>
       <c r="T47" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U47" s="6">
         <v>0</v>
@@ -5515,11 +6174,21 @@
       <c r="Z47" s="6">
         <v>0</v>
       </c>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
+      <c r="AA47" s="6">
+        <v>9</v>
+      </c>
+      <c r="AB47" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="14">
+        <v>5</v>
+      </c>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
@@ -5533,74 +6202,83 @@
       <c r="AP47" s="5"/>
       <c r="AQ47" s="5"/>
       <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
     </row>
-    <row r="48" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I48" s="6">
-        <v>110</v>
-      </c>
-      <c r="J48" s="6">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J48" s="12"/>
       <c r="K48" s="6">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="L48" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
       </c>
       <c r="N48" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O48" s="6">
-        <v>100</v>
-      </c>
-      <c r="P48" s="6">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="P48" s="12"/>
       <c r="Q48" s="6">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="R48" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S48" s="7">
         <v>0</v>
       </c>
       <c r="T48" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U48" s="6">
-        <v>10</v>
-      </c>
-      <c r="V48" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="V48" s="12"/>
       <c r="W48" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X48" s="6">
         <v>0</v>
@@ -5629,63 +6307,76 @@
       <c r="AP48" s="5"/>
       <c r="AQ48" s="5"/>
       <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
     </row>
-    <row r="49" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="10">
-        <v>0</v>
-      </c>
-      <c r="J49" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8"/>
       <c r="K49" s="6">
         <v>0</v>
       </c>
-      <c r="L49" s="10">
-        <v>15</v>
+      <c r="L49" s="6">
+        <v>0</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
       <c r="N49" s="6">
-        <v>15</v>
-      </c>
-      <c r="O49" s="10">
-        <v>0</v>
-      </c>
-      <c r="P49" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8"/>
       <c r="Q49" s="6">
         <v>0</v>
       </c>
-      <c r="R49" s="10">
-        <v>15</v>
+      <c r="R49" s="6">
+        <v>0</v>
       </c>
       <c r="S49" s="7">
         <v>0</v>
       </c>
       <c r="T49" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U49" s="6">
         <v>0</v>
@@ -5703,10 +6394,18 @@
       <c r="Z49" s="6">
         <v>0</v>
       </c>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
+      <c r="AA49" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB49" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="14">
+        <v>4</v>
+      </c>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
@@ -5721,58 +6420,67 @@
       <c r="AP49" s="5"/>
       <c r="AQ49" s="5"/>
       <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
     </row>
-    <row r="50" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I50" s="6">
-        <v>240</v>
-      </c>
-      <c r="J50" s="6">
-        <v>231</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J50" s="12"/>
       <c r="K50" s="6">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="L50" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O50" s="6">
-        <v>231</v>
-      </c>
-      <c r="P50" s="6">
-        <v>231</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="P50" s="12"/>
       <c r="Q50" s="6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R50" s="6">
         <v>3</v>
@@ -5784,20 +6492,20 @@
         <v>3</v>
       </c>
       <c r="U50" s="6">
-        <v>9</v>
-      </c>
-      <c r="V50" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="8"/>
       <c r="W50" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X50" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="7">
         <v>0</v>
       </c>
       <c r="Z50" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
@@ -5817,70 +6525,87 @@
       <c r="AP50" s="5"/>
       <c r="AQ50" s="5"/>
       <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
     </row>
-    <row r="51" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0</v>
-      </c>
-      <c r="J51" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="I51" s="6">
+        <v>96</v>
+      </c>
+      <c r="J51" s="6">
+        <v>47</v>
+      </c>
       <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="10">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="L51" s="6">
+        <v>19</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>7</v>
-      </c>
-      <c r="O51" s="10">
-        <v>0</v>
-      </c>
-      <c r="P51" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="O51" s="6">
+        <v>86</v>
+      </c>
+      <c r="P51" s="6">
+        <v>47</v>
+      </c>
       <c r="Q51" s="6">
-        <v>0</v>
-      </c>
-      <c r="R51" s="10">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="R51" s="6">
+        <v>19</v>
       </c>
       <c r="S51" s="7">
         <v>0</v>
       </c>
       <c r="T51" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="U51" s="6">
-        <v>0</v>
-      </c>
-      <c r="V51" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="V51" s="12"/>
       <c r="W51" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X51" s="6">
         <v>0</v>
@@ -5891,17 +6616,33 @@
       <c r="Z51" s="6">
         <v>0</v>
       </c>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
+      <c r="AA51" s="6">
+        <v>17</v>
+      </c>
+      <c r="AB51" s="13">
+        <v>6</v>
+      </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
+      <c r="AF51" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG51" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH51" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI51" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ51" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK51" s="15">
+        <v>11</v>
+      </c>
       <c r="AL51" s="5"/>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
@@ -5909,63 +6650,76 @@
       <c r="AP51" s="5"/>
       <c r="AQ51" s="5"/>
       <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
     </row>
-    <row r="52" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I52" s="10">
-        <v>2</v>
-      </c>
-      <c r="J52" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+      <c r="J52" s="12"/>
       <c r="K52" s="6">
-        <v>2</v>
-      </c>
-      <c r="L52" s="10">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>44</v>
-      </c>
-      <c r="O52" s="10">
-        <v>2</v>
-      </c>
-      <c r="P52" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>1</v>
+      </c>
+      <c r="P52" s="12"/>
       <c r="Q52" s="6">
-        <v>2</v>
-      </c>
-      <c r="R52" s="10">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="R52" s="6">
+        <v>0</v>
       </c>
       <c r="S52" s="7">
         <v>0</v>
       </c>
       <c r="T52" s="6">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U52" s="6">
         <v>0</v>
@@ -6001,79 +6755,96 @@
       <c r="AP52" s="5"/>
       <c r="AQ52" s="5"/>
       <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
     </row>
-    <row r="53" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I53" s="6">
-        <v>76</v>
-      </c>
-      <c r="J53" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="J53" s="6">
+        <v>231</v>
+      </c>
       <c r="K53" s="6">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="L53" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O53" s="6">
-        <v>66</v>
-      </c>
-      <c r="P53" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="P53" s="6">
+        <v>231</v>
+      </c>
       <c r="Q53" s="6">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="R53" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S53" s="7">
         <v>0</v>
       </c>
       <c r="T53" s="6">
-        <v>7</v>
-      </c>
-      <c r="U53" s="6">
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>0</v>
+      </c>
+      <c r="V53" s="12"/>
+      <c r="W53" s="6">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
         <v>10</v>
       </c>
-      <c r="V53" s="11"/>
-      <c r="W53" s="6">
+      <c r="Y53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="6">
         <v>10</v>
-      </c>
-      <c r="X53" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="6">
-        <v>0</v>
       </c>
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
@@ -6093,38 +6864,51 @@
       <c r="AP53" s="5"/>
       <c r="AQ53" s="5"/>
       <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
     </row>
-    <row r="54" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I54" s="6">
-        <v>7</v>
-      </c>
-      <c r="J54" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="J54" s="12"/>
       <c r="K54" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -6136,11 +6920,11 @@
         <v>0</v>
       </c>
       <c r="O54" s="6">
-        <v>7</v>
-      </c>
-      <c r="P54" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="P54" s="12"/>
       <c r="Q54" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R54" s="6">
         <v>0</v>
@@ -6185,67 +6969,76 @@
       <c r="AP54" s="5"/>
       <c r="AQ54" s="5"/>
       <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
     </row>
-    <row r="55" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I55" s="6">
-        <v>133</v>
-      </c>
-      <c r="J55" s="6">
-        <v>133</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I55" s="11">
+        <v>4</v>
+      </c>
+      <c r="J55" s="12"/>
       <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="L55" s="11">
+        <v>44</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6">
-        <v>133</v>
-      </c>
-      <c r="P55" s="6">
-        <v>133</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O55" s="11">
+        <v>4</v>
+      </c>
+      <c r="P55" s="12"/>
       <c r="Q55" s="6">
-        <v>0</v>
-      </c>
-      <c r="R55" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R55" s="11">
+        <v>44</v>
       </c>
       <c r="S55" s="7">
         <v>0</v>
       </c>
       <c r="T55" s="6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U55" s="6">
         <v>0</v>
@@ -6263,16 +7056,30 @@
       <c r="Z55" s="6">
         <v>0</v>
       </c>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
+      <c r="AA55" s="6">
+        <v>14</v>
+      </c>
+      <c r="AB55" s="13">
+        <v>5</v>
+      </c>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
+      <c r="AF55" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG55" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH55" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI55" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ55" s="15">
+        <v>10</v>
+      </c>
       <c r="AK55" s="5"/>
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
@@ -6281,74 +7088,83 @@
       <c r="AP55" s="5"/>
       <c r="AQ55" s="5"/>
       <c r="AR55" s="5"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+      <c r="AV55" s="5"/>
+      <c r="AW55" s="5"/>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
+      <c r="BB55" s="5"/>
+      <c r="BC55" s="5"/>
+      <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
     </row>
-    <row r="56" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I56" s="6">
-        <v>50</v>
-      </c>
-      <c r="J56" s="6">
-        <v>50</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J56" s="12"/>
       <c r="K56" s="6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L56" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
       </c>
       <c r="N56" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O56" s="6">
-        <v>50</v>
-      </c>
-      <c r="P56" s="6">
-        <v>50</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P56" s="12"/>
       <c r="Q56" s="6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="R56" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S56" s="7">
         <v>0</v>
       </c>
       <c r="T56" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U56" s="6">
-        <v>0</v>
-      </c>
-      <c r="V56" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="V56" s="12"/>
       <c r="W56" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X56" s="6">
         <v>0</v>
@@ -6377,74 +7193,83 @@
       <c r="AP56" s="5"/>
       <c r="AQ56" s="5"/>
       <c r="AR56" s="5"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BE56" s="5"/>
     </row>
-    <row r="57" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I57" s="6">
-        <v>199</v>
-      </c>
-      <c r="J57" s="6">
-        <v>65</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I57" s="11">
+        <v>1</v>
+      </c>
+      <c r="J57" s="12"/>
       <c r="K57" s="6">
-        <v>134</v>
-      </c>
-      <c r="L57" s="6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L57" s="11">
+        <v>6</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
       </c>
       <c r="N57" s="6">
-        <v>2</v>
-      </c>
-      <c r="O57" s="6">
-        <v>189</v>
-      </c>
-      <c r="P57" s="6">
-        <v>65</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O57" s="11">
+        <v>1</v>
+      </c>
+      <c r="P57" s="12"/>
       <c r="Q57" s="6">
-        <v>124</v>
-      </c>
-      <c r="R57" s="6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R57" s="11">
+        <v>6</v>
       </c>
       <c r="S57" s="7">
         <v>0</v>
       </c>
       <c r="T57" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U57" s="6">
-        <v>10</v>
-      </c>
-      <c r="V57" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="8"/>
       <c r="W57" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X57" s="6">
         <v>0</v>
@@ -6455,8 +7280,12 @@
       <c r="Z57" s="6">
         <v>0</v>
       </c>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
+      <c r="AA57" s="6">
+        <v>17</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>6</v>
+      </c>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -6465,82 +7294,107 @@
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
+      <c r="AK57" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL57" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM57" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN57" s="15">
+        <v>14</v>
+      </c>
+      <c r="AO57" s="15">
+        <v>15</v>
+      </c>
+      <c r="AP57" s="15">
+        <v>16</v>
+      </c>
       <c r="AQ57" s="5"/>
       <c r="AR57" s="5"/>
+      <c r="AS57" s="5"/>
+      <c r="AT57" s="5"/>
+      <c r="AU57" s="5"/>
+      <c r="AV57" s="5"/>
+      <c r="AW57" s="5"/>
+      <c r="AX57" s="5"/>
+      <c r="AY57" s="5"/>
+      <c r="AZ57" s="5"/>
+      <c r="BA57" s="5"/>
+      <c r="BB57" s="5"/>
+      <c r="BC57" s="5"/>
+      <c r="BD57" s="5"/>
+      <c r="BE57" s="5"/>
     </row>
-    <row r="58" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I58" s="6">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="J58" s="6">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K58" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L58" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O58" s="6">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="P58" s="6">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="Q58" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R58" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S58" s="7">
         <v>0</v>
       </c>
       <c r="T58" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U58" s="6">
-        <v>5</v>
-      </c>
-      <c r="V58" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="8"/>
       <c r="W58" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X58" s="6">
         <v>0</v>
@@ -6569,37 +7423,50 @@
       <c r="AP58" s="5"/>
       <c r="AQ58" s="5"/>
       <c r="AR58" s="5"/>
+      <c r="AS58" s="5"/>
+      <c r="AT58" s="5"/>
+      <c r="AU58" s="5"/>
+      <c r="AV58" s="5"/>
+      <c r="AW58" s="5"/>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="5"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="5"/>
+      <c r="BE58" s="5"/>
     </row>
-    <row r="59" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I59" s="6">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J59" s="6">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K59" s="6">
         <v>0</v>
@@ -6614,10 +7481,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="6">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="P59" s="6">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="Q59" s="6">
         <v>0</v>
@@ -6665,74 +7532,87 @@
       <c r="AP59" s="5"/>
       <c r="AQ59" s="5"/>
       <c r="AR59" s="5"/>
+      <c r="AS59" s="5"/>
+      <c r="AT59" s="5"/>
+      <c r="AU59" s="5"/>
+      <c r="AV59" s="5"/>
+      <c r="AW59" s="5"/>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="5"/>
+      <c r="AZ59" s="5"/>
+      <c r="BA59" s="5"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="5"/>
+      <c r="BE59" s="5"/>
     </row>
-    <row r="60" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="6">
+        <v>199</v>
+      </c>
+      <c r="J60" s="6">
         <v>65</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="6">
-        <v>156</v>
-      </c>
-      <c r="J60" s="6">
-        <v>156</v>
-      </c>
       <c r="K60" s="6">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="L60" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O60" s="6">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="P60" s="6">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="Q60" s="6">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="R60" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S60" s="7">
         <v>0</v>
       </c>
       <c r="T60" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U60" s="6">
-        <v>0</v>
-      </c>
-      <c r="V60" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="V60" s="12"/>
       <c r="W60" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X60" s="6">
         <v>0</v>
@@ -6761,74 +7641,87 @@
       <c r="AP60" s="5"/>
       <c r="AQ60" s="5"/>
       <c r="AR60" s="5"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="5"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="5"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="5"/>
+      <c r="BE60" s="5"/>
     </row>
-    <row r="61" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I61" s="6">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="J61" s="6">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K61" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L61" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
       </c>
       <c r="N61" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O61" s="6">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="P61" s="6">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="Q61" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R61" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S61" s="7">
         <v>0</v>
       </c>
       <c r="T61" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U61" s="6">
-        <v>0</v>
-      </c>
-      <c r="V61" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="V61" s="12"/>
       <c r="W61" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X61" s="6">
         <v>0</v>
@@ -6857,37 +7750,50 @@
       <c r="AP61" s="5"/>
       <c r="AQ61" s="5"/>
       <c r="AR61" s="5"/>
+      <c r="AS61" s="5"/>
+      <c r="AT61" s="5"/>
+      <c r="AU61" s="5"/>
+      <c r="AV61" s="5"/>
+      <c r="AW61" s="5"/>
+      <c r="AX61" s="5"/>
+      <c r="AY61" s="5"/>
+      <c r="AZ61" s="5"/>
+      <c r="BA61" s="5"/>
+      <c r="BB61" s="5"/>
+      <c r="BC61" s="5"/>
+      <c r="BD61" s="5"/>
+      <c r="BE61" s="5"/>
     </row>
-    <row r="62" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I62" s="6">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J62" s="6">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K62" s="6">
         <v>0</v>
@@ -6902,10 +7808,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="6">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="P62" s="6">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Q62" s="6">
         <v>0</v>
@@ -6953,37 +7859,50 @@
       <c r="AP62" s="5"/>
       <c r="AQ62" s="5"/>
       <c r="AR62" s="5"/>
+      <c r="AS62" s="5"/>
+      <c r="AT62" s="5"/>
+      <c r="AU62" s="5"/>
+      <c r="AV62" s="5"/>
+      <c r="AW62" s="5"/>
+      <c r="AX62" s="5"/>
+      <c r="AY62" s="5"/>
+      <c r="AZ62" s="5"/>
+      <c r="BA62" s="5"/>
+      <c r="BB62" s="5"/>
+      <c r="BC62" s="5"/>
+      <c r="BD62" s="5"/>
+      <c r="BE62" s="5"/>
     </row>
-    <row r="63" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I63" s="6">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="J63" s="6">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="K63" s="6">
         <v>0</v>
@@ -6998,10 +7917,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="6">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="P63" s="6">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="Q63" s="6">
         <v>0</v>
@@ -7049,37 +7968,50 @@
       <c r="AP63" s="5"/>
       <c r="AQ63" s="5"/>
       <c r="AR63" s="5"/>
+      <c r="AS63" s="5"/>
+      <c r="AT63" s="5"/>
+      <c r="AU63" s="5"/>
+      <c r="AV63" s="5"/>
+      <c r="AW63" s="5"/>
+      <c r="AX63" s="5"/>
+      <c r="AY63" s="5"/>
+      <c r="AZ63" s="5"/>
+      <c r="BA63" s="5"/>
+      <c r="BB63" s="5"/>
+      <c r="BC63" s="5"/>
+      <c r="BD63" s="5"/>
+      <c r="BE63" s="5"/>
     </row>
-    <row r="64" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I64" s="6">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="J64" s="6">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="K64" s="6">
         <v>0</v>
@@ -7094,10 +8026,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="6">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="P64" s="6">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="Q64" s="6">
         <v>0</v>
@@ -7145,37 +8077,50 @@
       <c r="AP64" s="5"/>
       <c r="AQ64" s="5"/>
       <c r="AR64" s="5"/>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="5"/>
+      <c r="AU64" s="5"/>
+      <c r="AV64" s="5"/>
+      <c r="AW64" s="5"/>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="5"/>
+      <c r="BA64" s="5"/>
+      <c r="BB64" s="5"/>
+      <c r="BC64" s="5"/>
+      <c r="BD64" s="5"/>
+      <c r="BE64" s="5"/>
     </row>
-    <row r="65" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="6">
         <v>36</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="6">
-        <v>45</v>
-      </c>
       <c r="J65" s="6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K65" s="6">
         <v>0</v>
@@ -7190,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="P65" s="6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q65" s="6">
         <v>0</v>
@@ -7241,102 +8186,105 @@
       <c r="AP65" s="5"/>
       <c r="AQ65" s="5"/>
       <c r="AR65" s="5"/>
+      <c r="AS65" s="5"/>
+      <c r="AT65" s="5"/>
+      <c r="AU65" s="5"/>
+      <c r="AV65" s="5"/>
+      <c r="AW65" s="5"/>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5"/>
+      <c r="BA65" s="5"/>
+      <c r="BB65" s="5"/>
+      <c r="BC65" s="5"/>
+      <c r="BD65" s="5"/>
+      <c r="BE65" s="5"/>
     </row>
-    <row r="66" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C66" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="10">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="I66" s="6">
+        <v>5</v>
+      </c>
+      <c r="J66" s="6">
+        <v>5</v>
+      </c>
       <c r="K66" s="6">
         <v>0</v>
       </c>
-      <c r="L66" s="10">
-        <v>783</v>
+      <c r="L66" s="6">
+        <v>0</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
       </c>
       <c r="N66" s="6">
-        <v>783</v>
-      </c>
-      <c r="O66" s="10">
-        <v>0</v>
-      </c>
-      <c r="P66" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <v>5</v>
+      </c>
+      <c r="P66" s="6">
+        <v>5</v>
+      </c>
       <c r="Q66" s="6">
         <v>0</v>
       </c>
-      <c r="R66" s="10">
-        <v>767</v>
+      <c r="R66" s="6">
+        <v>0</v>
       </c>
       <c r="S66" s="7">
         <v>0</v>
       </c>
       <c r="T66" s="6">
-        <v>767</v>
-      </c>
-      <c r="U66" s="10">
-        <v>0</v>
-      </c>
-      <c r="V66" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="6">
+        <v>0</v>
+      </c>
+      <c r="V66" s="8"/>
       <c r="W66" s="6">
         <v>0</v>
       </c>
-      <c r="X66" s="10">
-        <v>16</v>
+      <c r="X66" s="6">
+        <v>0</v>
       </c>
       <c r="Y66" s="7">
         <v>0</v>
       </c>
       <c r="Z66" s="6">
-        <v>16</v>
-      </c>
-      <c r="AA66" s="6">
-        <v>18</v>
-      </c>
-      <c r="AB66" s="13">
-        <v>6</v>
-      </c>
-      <c r="AC66" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD66" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE66" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF66" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG66" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH66" s="14">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5"/>
@@ -7347,153 +8295,159 @@
       <c r="AP66" s="5"/>
       <c r="AQ66" s="5"/>
       <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="5"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
     </row>
-    <row r="67" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C67" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I67" s="10">
-        <v>0</v>
-      </c>
-      <c r="J67" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="I67" s="6">
+        <v>183</v>
+      </c>
+      <c r="J67" s="6">
+        <v>183</v>
+      </c>
       <c r="K67" s="6">
         <v>0</v>
       </c>
-      <c r="L67" s="16">
-        <v>2481</v>
+      <c r="L67" s="6">
+        <v>0</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
       </c>
-      <c r="N67" s="17">
-        <v>2481</v>
-      </c>
-      <c r="O67" s="10">
-        <v>0</v>
-      </c>
-      <c r="P67" s="11"/>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>183</v>
+      </c>
+      <c r="P67" s="6">
+        <v>183</v>
+      </c>
       <c r="Q67" s="6">
         <v>0</v>
       </c>
-      <c r="R67" s="16">
-        <v>2451</v>
+      <c r="R67" s="6">
+        <v>0</v>
       </c>
       <c r="S67" s="7">
         <v>0</v>
       </c>
-      <c r="T67" s="17">
-        <v>2451</v>
-      </c>
-      <c r="U67" s="10">
-        <v>0</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="T67" s="6">
+        <v>0</v>
+      </c>
+      <c r="U67" s="6">
+        <v>0</v>
+      </c>
+      <c r="V67" s="8"/>
       <c r="W67" s="6">
         <v>0</v>
       </c>
-      <c r="X67" s="10">
-        <v>30</v>
+      <c r="X67" s="6">
+        <v>0</v>
       </c>
       <c r="Y67" s="7">
         <v>0</v>
       </c>
       <c r="Z67" s="6">
-        <v>30</v>
-      </c>
-      <c r="AA67" s="6">
-        <v>36</v>
-      </c>
-      <c r="AB67" s="13">
-        <v>12</v>
-      </c>
-      <c r="AC67" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD67" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE67" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF67" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG67" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH67" s="14">
-        <v>24</v>
-      </c>
-      <c r="AI67" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ67" s="14">
-        <v>26</v>
-      </c>
-      <c r="AK67" s="14">
-        <v>27</v>
-      </c>
-      <c r="AL67" s="14">
-        <v>28</v>
-      </c>
-      <c r="AM67" s="14">
-        <v>29</v>
-      </c>
-      <c r="AN67" s="14">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
       <c r="AO67" s="5"/>
       <c r="AP67" s="5"/>
       <c r="AQ67" s="5"/>
       <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
     </row>
-    <row r="68" spans="1:44" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C68" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I68" s="6">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="J68" s="6">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="K68" s="6">
         <v>0</v>
@@ -7508,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="6">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="P68" s="6">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="Q68" s="6">
         <v>0</v>
@@ -7559,221 +8513,348 @@
       <c r="AP68" s="5"/>
       <c r="AQ68" s="5"/>
       <c r="AR68" s="5"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="5"/>
+      <c r="AV68" s="5"/>
+      <c r="AW68" s="5"/>
+      <c r="AX68" s="5"/>
+      <c r="AY68" s="5"/>
+      <c r="AZ68" s="5"/>
+      <c r="BA68" s="5"/>
+      <c r="BB68" s="5"/>
+      <c r="BC68" s="5"/>
+      <c r="BD68" s="5"/>
+      <c r="BE68" s="5"/>
     </row>
-    <row r="69" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I69" s="17">
-        <v>1750</v>
-      </c>
-      <c r="J69" s="17">
-        <v>1750</v>
+        <v>55</v>
+      </c>
+      <c r="I69" s="16">
+        <v>2444</v>
+      </c>
+      <c r="J69" s="16">
+        <v>2444</v>
       </c>
       <c r="K69" s="6">
         <v>0</v>
       </c>
       <c r="L69" s="6">
-        <v>783</v>
+        <v>622</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
       </c>
       <c r="N69" s="6">
-        <v>783</v>
-      </c>
-      <c r="O69" s="17">
-        <v>1750</v>
-      </c>
-      <c r="P69" s="17">
-        <v>1750</v>
+        <v>622</v>
+      </c>
+      <c r="O69" s="16">
+        <v>2444</v>
+      </c>
+      <c r="P69" s="16">
+        <v>2444</v>
       </c>
       <c r="Q69" s="6">
         <v>0</v>
       </c>
       <c r="R69" s="6">
-        <v>767</v>
+        <v>597</v>
       </c>
       <c r="S69" s="7">
         <v>0</v>
       </c>
       <c r="T69" s="6">
-        <v>767</v>
-      </c>
-      <c r="U69" s="10">
-        <v>0</v>
-      </c>
-      <c r="V69" s="11"/>
+        <v>597</v>
+      </c>
+      <c r="U69" s="11">
+        <v>0</v>
+      </c>
+      <c r="V69" s="12"/>
       <c r="W69" s="6">
         <v>0</v>
       </c>
-      <c r="X69" s="10">
-        <v>16</v>
+      <c r="X69" s="11">
+        <v>25</v>
       </c>
       <c r="Y69" s="7">
         <v>0</v>
       </c>
       <c r="Z69" s="6">
-        <v>16</v>
-      </c>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="5"/>
-      <c r="AI69" s="5"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="5"/>
-      <c r="AL69" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="AA69" s="6">
+        <v>30</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>10</v>
+      </c>
+      <c r="AC69" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD69" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE69" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF69" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG69" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH69" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI69" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ69" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK69" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL69" s="15">
+        <v>12</v>
+      </c>
       <c r="AM69" s="5"/>
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
       <c r="AP69" s="5"/>
       <c r="AQ69" s="5"/>
       <c r="AR69" s="5"/>
+      <c r="AS69" s="5"/>
+      <c r="AT69" s="5"/>
+      <c r="AU69" s="5"/>
+      <c r="AV69" s="5"/>
+      <c r="AW69" s="5"/>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="5"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="5"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
+      <c r="BD69" s="5"/>
+      <c r="BE69" s="5"/>
     </row>
-    <row r="70" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I70" s="16">
-        <v>1750</v>
-      </c>
-      <c r="J70" s="17">
-        <v>1750</v>
+        <v>83</v>
+      </c>
+      <c r="I70" s="11">
+        <v>331</v>
+      </c>
+      <c r="J70" s="6">
+        <v>331</v>
       </c>
       <c r="K70" s="6">
         <v>0</v>
       </c>
-      <c r="L70" s="16">
-        <v>2481</v>
+      <c r="L70" s="17">
+        <v>2321</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
       </c>
-      <c r="N70" s="17">
-        <v>2481</v>
-      </c>
-      <c r="O70" s="16">
-        <v>1750</v>
-      </c>
-      <c r="P70" s="17">
-        <v>1750</v>
+      <c r="N70" s="16">
+        <v>2321</v>
+      </c>
+      <c r="O70" s="11">
+        <v>331</v>
+      </c>
+      <c r="P70" s="6">
+        <v>331</v>
       </c>
       <c r="Q70" s="6">
         <v>0</v>
       </c>
-      <c r="R70" s="16">
-        <v>2451</v>
+      <c r="R70" s="17">
+        <v>2239</v>
       </c>
       <c r="S70" s="7">
         <v>0</v>
       </c>
-      <c r="T70" s="17">
-        <v>2451</v>
-      </c>
-      <c r="U70" s="10">
-        <v>0</v>
-      </c>
-      <c r="V70" s="11"/>
+      <c r="T70" s="16">
+        <v>2239</v>
+      </c>
+      <c r="U70" s="11">
+        <v>0</v>
+      </c>
+      <c r="V70" s="12"/>
       <c r="W70" s="6">
         <v>0</v>
       </c>
-      <c r="X70" s="10">
+      <c r="X70" s="11">
+        <v>82</v>
+      </c>
+      <c r="Y70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="6">
+        <v>82</v>
+      </c>
+      <c r="AA70" s="6">
+        <v>87</v>
+      </c>
+      <c r="AB70" s="13">
+        <v>29</v>
+      </c>
+      <c r="AC70" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD70" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE70" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF70" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG70" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH70" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI70" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ70" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK70" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL70" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM70" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN70" s="15">
+        <v>14</v>
+      </c>
+      <c r="AO70" s="15">
+        <v>15</v>
+      </c>
+      <c r="AP70" s="15">
+        <v>16</v>
+      </c>
+      <c r="AQ70" s="15">
+        <v>17</v>
+      </c>
+      <c r="AR70" s="15">
+        <v>18</v>
+      </c>
+      <c r="AS70" s="15">
+        <v>19</v>
+      </c>
+      <c r="AT70" s="15">
+        <v>20</v>
+      </c>
+      <c r="AU70" s="15">
+        <v>21</v>
+      </c>
+      <c r="AV70" s="15">
+        <v>22</v>
+      </c>
+      <c r="AW70" s="15">
+        <v>23</v>
+      </c>
+      <c r="AX70" s="15">
+        <v>24</v>
+      </c>
+      <c r="AY70" s="15">
+        <v>25</v>
+      </c>
+      <c r="AZ70" s="15">
+        <v>26</v>
+      </c>
+      <c r="BA70" s="15">
+        <v>27</v>
+      </c>
+      <c r="BB70" s="15">
+        <v>28</v>
+      </c>
+      <c r="BC70" s="15">
+        <v>29</v>
+      </c>
+      <c r="BD70" s="15">
         <v>30</v>
       </c>
-      <c r="Y70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="6">
-        <v>30</v>
-      </c>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="8"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="5"/>
-      <c r="AH70" s="5"/>
-      <c r="AI70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="5"/>
-      <c r="AL70" s="5"/>
-      <c r="AM70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="5"/>
-      <c r="AP70" s="5"/>
-      <c r="AQ70" s="5"/>
-      <c r="AR70" s="5"/>
+      <c r="BE70" s="15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="71" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E71" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I71" s="6">
-        <v>36</v>
+        <v>589</v>
       </c>
       <c r="J71" s="6">
-        <v>36</v>
+        <v>589</v>
       </c>
       <c r="K71" s="6">
         <v>0</v>
@@ -7788,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <v>36</v>
+        <v>589</v>
       </c>
       <c r="P71" s="6">
-        <v>36</v>
+        <v>589</v>
       </c>
       <c r="Q71" s="6">
         <v>0</v>
@@ -7839,81 +8920,94 @@
       <c r="AP71" s="5"/>
       <c r="AQ71" s="5"/>
       <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="5"/>
+      <c r="AV71" s="5"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
     </row>
-    <row r="72" spans="1:44" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>128</v>
+        <v>79</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I72" s="10">
-        <v>500</v>
-      </c>
-      <c r="J72" s="6">
-        <v>500</v>
+        <v>55</v>
+      </c>
+      <c r="I72" s="16">
+        <v>1750</v>
+      </c>
+      <c r="J72" s="16">
+        <v>1750</v>
       </c>
       <c r="K72" s="6">
         <v>0</v>
       </c>
-      <c r="L72" s="10">
-        <v>783</v>
+      <c r="L72" s="6">
+        <v>622</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
       </c>
       <c r="N72" s="6">
-        <v>783</v>
-      </c>
-      <c r="O72" s="10">
-        <v>500</v>
-      </c>
-      <c r="P72" s="6">
-        <v>500</v>
+        <v>622</v>
+      </c>
+      <c r="O72" s="16">
+        <v>1750</v>
+      </c>
+      <c r="P72" s="16">
+        <v>1750</v>
       </c>
       <c r="Q72" s="6">
         <v>0</v>
       </c>
-      <c r="R72" s="10">
-        <v>767</v>
+      <c r="R72" s="6">
+        <v>597</v>
       </c>
       <c r="S72" s="7">
         <v>0</v>
       </c>
       <c r="T72" s="6">
-        <v>767</v>
-      </c>
-      <c r="U72" s="10">
-        <v>0</v>
-      </c>
-      <c r="V72" s="11"/>
+        <v>597</v>
+      </c>
+      <c r="U72" s="11">
+        <v>0</v>
+      </c>
+      <c r="V72" s="12"/>
       <c r="W72" s="6">
         <v>0</v>
       </c>
-      <c r="X72" s="10">
-        <v>16</v>
+      <c r="X72" s="11">
+        <v>25</v>
       </c>
       <c r="Y72" s="7">
         <v>0</v>
       </c>
       <c r="Z72" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AA72" s="8"/>
       <c r="AB72" s="8"/>
@@ -7933,118 +9027,606 @@
       <c r="AP72" s="5"/>
       <c r="AQ72" s="5"/>
       <c r="AR72" s="5"/>
+      <c r="AS72" s="5"/>
+      <c r="AT72" s="5"/>
+      <c r="AU72" s="5"/>
+      <c r="AV72" s="5"/>
+      <c r="AW72" s="5"/>
+      <c r="AX72" s="5"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="5"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="5"/>
+      <c r="BD72" s="5"/>
+      <c r="BE72" s="5"/>
     </row>
-    <row r="73" spans="1:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I73" s="10">
-        <v>0</v>
-      </c>
-      <c r="J73" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12"/>
       <c r="K73" s="6">
         <v>0</v>
       </c>
-      <c r="L73" s="16">
-        <v>2481</v>
+      <c r="L73" s="17">
+        <v>2321</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
       </c>
-      <c r="N73" s="17">
-        <v>2481</v>
-      </c>
-      <c r="O73" s="10">
-        <v>0</v>
-      </c>
-      <c r="P73" s="11"/>
+      <c r="N73" s="16">
+        <v>2321</v>
+      </c>
+      <c r="O73" s="11">
+        <v>0</v>
+      </c>
+      <c r="P73" s="12"/>
       <c r="Q73" s="6">
         <v>0</v>
       </c>
-      <c r="R73" s="16">
-        <v>2451</v>
+      <c r="R73" s="17">
+        <v>2239</v>
       </c>
       <c r="S73" s="7">
         <v>0</v>
       </c>
-      <c r="T73" s="17">
-        <v>2451</v>
-      </c>
-      <c r="U73" s="10">
-        <v>0</v>
-      </c>
-      <c r="V73" s="11"/>
+      <c r="T73" s="16">
+        <v>2239</v>
+      </c>
+      <c r="U73" s="11">
+        <v>0</v>
+      </c>
+      <c r="V73" s="12"/>
       <c r="W73" s="6">
         <v>0</v>
       </c>
-      <c r="X73" s="10">
+      <c r="X73" s="11">
+        <v>82</v>
+      </c>
+      <c r="Y73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>82</v>
+      </c>
+      <c r="AA73" s="6">
+        <v>72</v>
+      </c>
+      <c r="AB73" s="13">
+        <v>24</v>
+      </c>
+      <c r="AC73" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD73" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE73" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF73" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG73" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH73" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI73" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ73" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK73" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL73" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM73" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN73" s="15">
+        <v>14</v>
+      </c>
+      <c r="AO73" s="15">
+        <v>15</v>
+      </c>
+      <c r="AP73" s="15">
+        <v>16</v>
+      </c>
+      <c r="AQ73" s="15">
+        <v>17</v>
+      </c>
+      <c r="AR73" s="15">
+        <v>18</v>
+      </c>
+      <c r="AS73" s="15">
+        <v>19</v>
+      </c>
+      <c r="AT73" s="15">
+        <v>20</v>
+      </c>
+      <c r="AU73" s="15">
+        <v>21</v>
+      </c>
+      <c r="AV73" s="15">
+        <v>22</v>
+      </c>
+      <c r="AW73" s="15">
+        <v>23</v>
+      </c>
+      <c r="AX73" s="15">
+        <v>24</v>
+      </c>
+      <c r="AY73" s="15">
+        <v>25</v>
+      </c>
+      <c r="AZ73" s="15">
+        <v>26</v>
+      </c>
+      <c r="BA73" s="5"/>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="5"/>
+      <c r="BD73" s="5"/>
+      <c r="BE73" s="5"/>
+    </row>
+    <row r="74" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="6">
+        <v>36</v>
+      </c>
+      <c r="J74" s="6">
+        <v>36</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
+        <v>36</v>
+      </c>
+      <c r="P74" s="6">
+        <v>36</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>0</v>
+      </c>
+      <c r="R74" s="6">
+        <v>0</v>
+      </c>
+      <c r="S74" s="7">
+        <v>0</v>
+      </c>
+      <c r="T74" s="6">
+        <v>0</v>
+      </c>
+      <c r="U74" s="6">
+        <v>0</v>
+      </c>
+      <c r="V74" s="8"/>
+      <c r="W74" s="6">
+        <v>0</v>
+      </c>
+      <c r="X74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+    </row>
+    <row r="75" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="16">
+        <v>1893</v>
+      </c>
+      <c r="J75" s="16">
+        <v>1893</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <v>622</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="N75" s="6">
+        <v>622</v>
+      </c>
+      <c r="O75" s="16">
+        <v>1893</v>
+      </c>
+      <c r="P75" s="16">
+        <v>1893</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>0</v>
+      </c>
+      <c r="R75" s="6">
+        <v>597</v>
+      </c>
+      <c r="S75" s="7">
+        <v>0</v>
+      </c>
+      <c r="T75" s="6">
+        <v>597</v>
+      </c>
+      <c r="U75" s="11">
+        <v>0</v>
+      </c>
+      <c r="V75" s="12"/>
+      <c r="W75" s="6">
+        <v>0</v>
+      </c>
+      <c r="X75" s="11">
+        <v>25</v>
+      </c>
+      <c r="Y75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA75" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB75" s="13">
+        <v>15</v>
+      </c>
+      <c r="AC75" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD75" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE75" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF75" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG75" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH75" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI75" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ75" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK75" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL75" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM75" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN75" s="15">
+        <v>14</v>
+      </c>
+      <c r="AO75" s="15">
+        <v>15</v>
+      </c>
+      <c r="AP75" s="15">
+        <v>16</v>
+      </c>
+      <c r="AQ75" s="15">
+        <v>17</v>
+      </c>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BE75" s="5"/>
+    </row>
+    <row r="76" spans="1:57" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I76" s="17">
+        <v>1068</v>
+      </c>
+      <c r="J76" s="16">
+        <v>1068</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="17">
+        <v>2321</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76" s="16">
+        <v>2321</v>
+      </c>
+      <c r="O76" s="17">
+        <v>1068</v>
+      </c>
+      <c r="P76" s="16">
+        <v>1068</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>0</v>
+      </c>
+      <c r="R76" s="17">
+        <v>2239</v>
+      </c>
+      <c r="S76" s="7">
+        <v>0</v>
+      </c>
+      <c r="T76" s="16">
+        <v>2239</v>
+      </c>
+      <c r="U76" s="11">
+        <v>0</v>
+      </c>
+      <c r="V76" s="12"/>
+      <c r="W76" s="6">
+        <v>0</v>
+      </c>
+      <c r="X76" s="11">
+        <v>82</v>
+      </c>
+      <c r="Y76" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="6">
+        <v>82</v>
+      </c>
+      <c r="AA76" s="6">
+        <v>87</v>
+      </c>
+      <c r="AB76" s="13">
+        <v>29</v>
+      </c>
+      <c r="AC76" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE76" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF76" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG76" s="14">
+        <v>7</v>
+      </c>
+      <c r="AH76" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI76" s="14">
+        <v>9</v>
+      </c>
+      <c r="AJ76" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK76" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL76" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM76" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN76" s="15">
+        <v>14</v>
+      </c>
+      <c r="AO76" s="15">
+        <v>15</v>
+      </c>
+      <c r="AP76" s="15">
+        <v>16</v>
+      </c>
+      <c r="AQ76" s="15">
+        <v>17</v>
+      </c>
+      <c r="AR76" s="15">
+        <v>18</v>
+      </c>
+      <c r="AS76" s="15">
+        <v>19</v>
+      </c>
+      <c r="AT76" s="15">
+        <v>20</v>
+      </c>
+      <c r="AU76" s="15">
+        <v>21</v>
+      </c>
+      <c r="AV76" s="15">
+        <v>22</v>
+      </c>
+      <c r="AW76" s="15">
+        <v>23</v>
+      </c>
+      <c r="AX76" s="15">
+        <v>24</v>
+      </c>
+      <c r="AY76" s="15">
+        <v>25</v>
+      </c>
+      <c r="AZ76" s="15">
+        <v>26</v>
+      </c>
+      <c r="BA76" s="15">
+        <v>27</v>
+      </c>
+      <c r="BB76" s="15">
+        <v>28</v>
+      </c>
+      <c r="BC76" s="15">
+        <v>29</v>
+      </c>
+      <c r="BD76" s="15">
         <v>30</v>
       </c>
-      <c r="Y73" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="6">
-        <v>30</v>
-      </c>
-      <c r="AA73" s="6">
-        <v>21</v>
-      </c>
-      <c r="AB73" s="13">
-        <v>7</v>
-      </c>
-      <c r="AC73" s="14">
-        <v>19</v>
-      </c>
-      <c r="AD73" s="14">
-        <v>20</v>
-      </c>
-      <c r="AE73" s="14">
-        <v>21</v>
-      </c>
-      <c r="AF73" s="14">
-        <v>22</v>
-      </c>
-      <c r="AG73" s="14">
-        <v>23</v>
-      </c>
-      <c r="AH73" s="14">
-        <v>24</v>
-      </c>
-      <c r="AI73" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-      <c r="AP73" s="5"/>
-      <c r="AQ73" s="5"/>
-      <c r="AR73" s="5"/>
+      <c r="BE76" s="15">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="49">
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
     <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
